--- a/Reports/MarketBeatRank/TanzyInvested/M.xlsx
+++ b/Reports/MarketBeatRank/TanzyInvested/M.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="40">
   <si>
     <t>Jun_10</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Jun_13</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
   </si>
 </sst>
 </file>
@@ -176,14 +182,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -197,6 +211,12 @@
       <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -206,6 +226,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -219,6 +245,12 @@
       <c r="C4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -230,6 +262,12 @@
       <c r="C5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -239,6 +277,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -250,6 +294,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -263,6 +313,12 @@
       <c r="C8" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -274,6 +330,12 @@
       <c r="C9" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -285,6 +347,12 @@
       <c r="C10" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -296,6 +364,12 @@
       <c r="C11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -307,6 +381,12 @@
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -316,6 +396,12 @@
         <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>32</v>
       </c>
     </row>
@@ -327,6 +413,12 @@
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -340,6 +432,12 @@
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -351,6 +449,12 @@
       <c r="C16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -362,6 +466,12 @@
       <c r="C17" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -371,6 +481,12 @@
         <v>2</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -382,6 +498,12 @@
         <v>2</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -393,6 +515,12 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>35</v>
       </c>
     </row>
@@ -406,6 +534,12 @@
       <c r="C21" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -417,6 +551,12 @@
       <c r="C22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -428,6 +568,12 @@
       <c r="C23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -439,6 +585,12 @@
       <c r="C24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -450,6 +602,12 @@
       <c r="C25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -461,6 +619,12 @@
       <c r="C26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -470,6 +634,12 @@
         <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>2</v>
       </c>
     </row>
